--- a/cal-curves.xlsx
+++ b/cal-curves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ijd\simulator-2021\dev\covette-dash-controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14097BD-24F5-447E-9AC0-087A79E1BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56614608-F319-464B-86CE-B87FE44C3EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1065" windowWidth="44310" windowHeight="19935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Speed</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>y = -14.05772 - 0.1464019*x + 0.003325954*x^2</t>
+  </si>
+  <si>
+    <t>FIT</t>
   </si>
 </sst>
 </file>
@@ -139,6 +142,6459 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed Cal/Fit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2895-441B-98A8-3738ED43E10C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8405419999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.02346584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.585974875000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.79957013999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.99476287500002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.75594200000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2895-441B-98A8-3738ED43E10C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1349886399"/>
+        <c:axId val="1349883071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1349886399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349883071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1349883071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349886399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RPM Cal/Fit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7DF-4184-B2C5-CC87987471ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$12:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1539103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.306696731999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.200474125000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.06704872500001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.271780925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7DF-4184-B2C5-CC87987471ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1463673007"/>
+        <c:axId val="1463665103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1463673007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463665103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1463665103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463673007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fuel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Cal/Fit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AC1-4748-97E2-DF47547DF280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0307390000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.671345523437488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.855768960937482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.68407617773437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178.757969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AC1-4748-97E2-DF47547DF280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1473147711"/>
+        <c:axId val="1473141055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1473147711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473141055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1473141055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473147711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Battery Cal/Fit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A605-4ABB-A49A-616D65A6EACA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0864687999999809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.991969999999966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.537171874999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.49762467499997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.88651079999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A605-4ABB-A49A-616D65A6EACA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1463674671"/>
+        <c:axId val="1463653871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1463674671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463653871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1463653871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463674671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Oil</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pressure Cal/Fit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4628-4B0D-A5FF-11F4182B3CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$38:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8045059999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.102532325000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.16754932500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.57182720000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.35365480000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4628-4B0D-A5FF-11F4182B3CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465596703"/>
+        <c:axId val="1465622079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465596703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465622079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1465622079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465596703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temp Cal/Fit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$45:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$45:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38AD-49A5-A81E-FFCC32067E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$45:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.561630000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.64218735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.703107349999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.38077440000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.71227640000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38AD-49A5-A81E-FFCC32067E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1504559759"/>
+        <c:axId val="1504570575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1504559759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1504570575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1504570575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1504559759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC26020E-235B-4041-9B9B-92DF5443B2F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA1051C-8293-4096-BC04-E6C9CC79D81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239EF0E0-F3D4-4015-B57B-A9D297CF87B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40406DA-E7C3-41E5-8806-219C80CA3BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6A4F9E-0F69-4C84-B053-282B1175BE8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2431291-C938-45F0-A471-A1364E77B015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,151 +6860,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J49"/>
+  <dimension ref="C1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2">
+        <f>1.840542 + 1.795234*C2 - 0.003303285*C2^2</f>
+        <v>1.8405419999999999</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>24</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
+      <c r="E3">
+        <f>1.840542 + 1.795234*C3 - 0.003303285*C3^2</f>
+        <v>43.02346584</v>
+      </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>55</v>
       </c>
       <c r="D4">
         <v>90</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4">
+        <f>1.840542 + 1.795234*C4 - 0.003303285*C4^2</f>
+        <v>90.585974875000005</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>86</v>
       </c>
       <c r="D5">
         <v>135</v>
       </c>
+      <c r="E5">
+        <f>1.840542 + 1.795234*C5 - 0.003303285*C5^2</f>
+        <v>131.79957013999999</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>135</v>
       </c>
       <c r="D6">
         <v>180</v>
       </c>
+      <c r="E6">
+        <f>1.840542 + 1.795234*C6 - 0.003303285*C6^2</f>
+        <v>183.99476287500002</v>
+      </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>200</v>
       </c>
       <c r="D7">
         <v>230</v>
       </c>
+      <c r="E7">
+        <f>1.840542 + 1.795234*C7 - 0.003303285*C7^2</f>
+        <v>228.75594200000003</v>
+      </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="E12">
+        <f xml:space="preserve"> 0.1539103 + 0.02892786*C12 - 0.0000008327303*C12^2</f>
+        <v>0.1539103</v>
+      </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1600</v>
       </c>
       <c r="D13">
         <v>45</v>
       </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E16" si="0" xml:space="preserve"> 0.1539103 + 0.02892786*C13 - 0.0000008327303*C13^2</f>
+        <v>44.306696731999999</v>
+      </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>3500</v>
       </c>
       <c r="D14">
         <v>90</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>91.200474125000014</v>
+      </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>5500</v>
       </c>
       <c r="D15">
         <v>135</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>134.06704872500001</v>
+      </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>7500</v>
       </c>
       <c r="D16">
         <v>170</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>170.271780925</v>
+      </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
         <v>7</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f>25/4</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
+      <c r="E20">
+        <f xml:space="preserve"> 2.030739 + 2.194218*C20 - 0.004269457*C20^2</f>
+        <v>2.0307390000000001</v>
+      </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>25-6.25</f>
         <v>18.75</v>
@@ -556,185 +7069,277 @@
       <c r="D21">
         <v>45</v>
       </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E24" si="1" xml:space="preserve"> 2.030739 + 2.194218*C21 - 0.004269457*C21^2</f>
+        <v>41.671345523437488</v>
+      </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22">
-        <f>50-J19</f>
+        <f>50-K19</f>
         <v>43.75</v>
       </c>
       <c r="D22">
         <v>90</v>
       </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>89.855768960937482</v>
+      </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23">
-        <f>75-J19/2</f>
+        <f>75-K19/2</f>
         <v>71.875</v>
       </c>
       <c r="D23">
         <v>135</v>
       </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>137.68407617773437</v>
+      </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>100</v>
       </c>
       <c r="D24">
         <v>180</v>
       </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>178.757969</v>
+      </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>8</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
+      <c r="E29">
+        <f xml:space="preserve"> -181.263 + 25.29143*C29 - 0.2965933*C29^2</f>
+        <v>2.0864687999999809</v>
+      </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30">
         <v>45</v>
       </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E33" si="2" xml:space="preserve"> -181.263 + 25.29143*C30 - 0.2965933*C30^2</f>
+        <v>41.991969999999966</v>
+      </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>12.5</v>
       </c>
       <c r="D31">
         <v>90</v>
       </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>88.537171874999999</v>
+      </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>15.5</v>
       </c>
       <c r="D32">
         <v>135</v>
       </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>139.49762467499997</v>
+      </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>18</v>
       </c>
       <c r="D33">
         <v>180</v>
       </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>177.88651079999994</v>
+      </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="F37" t="s">
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
+      <c r="E38">
+        <f xml:space="preserve"> 2.804506 + 2.638895*C38 - 0.005712883*C38^2</f>
+        <v>2.8045059999999999</v>
+      </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>15</v>
       </c>
       <c r="D39">
         <v>45</v>
       </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E42" si="3" xml:space="preserve"> 2.804506 + 2.638895*C39 - 0.005712883*C39^2</f>
+        <v>41.102532325000006</v>
+      </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>35</v>
       </c>
       <c r="D40">
         <v>90</v>
       </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>88.16754932500001</v>
+      </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>60</v>
       </c>
       <c r="D41">
         <v>135</v>
       </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>140.57182720000003</v>
+      </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>80</v>
       </c>
       <c r="D42">
         <v>180</v>
       </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>177.35365480000002</v>
+      </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="F44" t="s">
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>100</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
+      <c r="E45">
+        <f xml:space="preserve"> -14.05772 - 0.1464019*C45 + 0.003325954*C45^2</f>
+        <v>4.561630000000001</v>
+      </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>145</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
+      <c r="E46">
+        <f t="shared" ref="E46:E49" si="4" xml:space="preserve"> -14.05772 - 0.1464019*C46 + 0.003325954*C46^2</f>
+        <v>34.64218735</v>
+      </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>205</v>
       </c>
       <c r="D47">
         <v>90</v>
       </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>95.703107349999982</v>
+      </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>240</v>
       </c>
       <c r="D48">
         <v>135</v>
       </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>142.38077440000001</v>
+      </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>260</v>
       </c>
       <c r="D49">
         <v>180</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>172.71227640000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7C29A751-0785-4EBA-9713-16B518413B3E}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{7C29A751-0785-4EBA-9713-16B518413B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>